--- a/已完成文档/04-功能测试书.xlsx
+++ b/已完成文档/04-功能测试书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA4265-F7D9-49CF-9ED3-01F77588B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B67BF-9069-4CE9-8499-28EC24513462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="275">
   <si>
     <r>
       <rPr>
@@ -1097,6 +1097,110 @@
   </si>
   <si>
     <t>恢复成功，提示"恢复成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>发药查看订单详情</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查发药详情是否正确显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发药和未发药查看订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示待发药信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退费查看订单详情</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示发药信息，和创建订单按钮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建相同订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否能正确创建相同订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退费创建相同订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确创建订单，并将原订单信息完全复制到新的订单中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同天第二次创建相同订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建失败，给出提示信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪支付业务完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否能正确进行支付订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>发药之后立即创建订单，查看是否支付成功</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功，返回发药界面</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单，并等五分钟后支付</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败，显示订单超时</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不创建订单，直接通过地址栏访问支付界面</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接显示失败，显示当前订单不存在</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入支付界面，进行第二次支付</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败，显示当前订单已支付</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单，将扫描订单查看是否检测已扫描</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描检测成功，显示已扫描</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单，检测用户是否支付成功</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测支付成功，跳回发药界面</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1641,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,6 +1696,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,152 +1729,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2039,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J90"/>
+  <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2058,12 +2177,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.399999999999999">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2071,53 +2190,53 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="24">
-      <c r="B3" s="69"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="2:10" ht="46.8" customHeight="1">
-      <c r="B4" s="63">
+      <c r="B4" s="61">
         <v>1</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2136,9 +2255,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="76.8" customHeight="1">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2157,13 +2276,13 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B6" s="56">
+      <c r="B6" s="54">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
@@ -2182,10 +2301,10 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B7" s="57"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="27" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -2203,10 +2322,10 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="55.2" customHeight="1">
-      <c r="B8" s="57"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="9" t="s">
         <v>58</v>
       </c>
@@ -2222,10 +2341,10 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="57" customHeight="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -2243,10 +2362,10 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="58.8" customHeight="1">
-      <c r="B10" s="57"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -2262,10 +2381,10 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="55.8" customHeight="1">
-      <c r="B11" s="57"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2283,10 +2402,10 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="67.2" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="9" t="s">
         <v>64</v>
       </c>
@@ -2302,13 +2421,13 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="106.05" customHeight="1">
-      <c r="B13" s="46">
+      <c r="B13" s="40">
         <v>3</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
@@ -2327,10 +2446,10 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="64.2" customHeight="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="24" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2348,10 +2467,10 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="52.8" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6" t="s">
         <v>34</v>
       </c>
@@ -2367,10 +2486,10 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="27" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -2388,10 +2507,10 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B17" s="54"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
@@ -2407,10 +2526,10 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B18" s="54"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="24" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -2428,10 +2547,10 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="11" t="s">
         <v>43</v>
       </c>
@@ -2447,13 +2566,13 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" ht="85.95" customHeight="1">
-      <c r="B20" s="46">
+      <c r="B20" s="40">
         <v>4</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2472,10 +2591,10 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" ht="67.95" customHeight="1">
-      <c r="B21" s="47"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -2493,10 +2612,10 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" ht="60" customHeight="1">
-      <c r="B22" s="47"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
@@ -2512,13 +2631,13 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B23" s="46">
+      <c r="B23" s="40">
         <v>5</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
@@ -2537,10 +2656,10 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="65" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="63" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2558,10 +2677,10 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" ht="49.05" customHeight="1">
-      <c r="B25" s="48"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
@@ -2577,13 +2696,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="61.05" customHeight="1">
-      <c r="B26" s="26">
+      <c r="B26" s="31">
         <v>6</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="8" t="s">
         <v>78</v>
       </c>
@@ -2602,10 +2721,10 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="24" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="27" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2623,10 +2742,10 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" ht="40.950000000000003" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="51"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="8" t="s">
         <v>84</v>
       </c>
@@ -2642,10 +2761,10 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" ht="40.950000000000003" customHeight="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="24" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="27" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -2663,10 +2782,10 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10" ht="42" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="8" t="s">
         <v>88</v>
       </c>
@@ -2682,10 +2801,10 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10" ht="42" customHeight="1">
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="24" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -2703,10 +2822,10 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:10" ht="42" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="25"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="8" t="s">
         <v>93</v>
       </c>
@@ -2722,13 +2841,13 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="2:10" ht="65.400000000000006" customHeight="1">
-      <c r="B33" s="26">
+      <c r="B33" s="31">
         <v>7</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="7" t="s">
         <v>96</v>
       </c>
@@ -2747,10 +2866,10 @@
       <c r="J33" s="12"/>
     </row>
     <row r="34" spans="2:10" ht="38.4" customHeight="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="24" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="27" t="s">
         <v>100</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -2768,10 +2887,10 @@
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="2:10" ht="36" customHeight="1">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="8" t="s">
         <v>103</v>
       </c>
@@ -2787,10 +2906,10 @@
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="2:10" ht="45" customHeight="1">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28" t="s">
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="29" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -2808,10 +2927,10 @@
       <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10" ht="48.6" customHeight="1">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="8" t="s">
         <v>110</v>
       </c>
@@ -2827,10 +2946,10 @@
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="2:10" ht="38.4" customHeight="1">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28" t="s">
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="29" t="s">
         <v>106</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -2848,10 +2967,10 @@
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="2:10" ht="33.6" customHeight="1">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="8" t="s">
         <v>108</v>
       </c>
@@ -2870,10 +2989,10 @@
       <c r="B40" s="10">
         <v>8</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="8" t="s">
         <v>113</v>
       </c>
@@ -2892,13 +3011,13 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10" ht="63.6" customHeight="1">
-      <c r="B41" s="26">
+      <c r="B41" s="31">
         <v>9</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="8" t="s">
         <v>117</v>
       </c>
@@ -2917,10 +3036,10 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10" ht="27.6" customHeight="1">
-      <c r="B42" s="26"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="24" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="27" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -2938,10 +3057,10 @@
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" ht="26.4" customHeight="1">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="25"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="8" t="s">
         <v>127</v>
       </c>
@@ -2957,10 +3076,10 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" ht="31.2" customHeight="1">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="24" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="27" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -2978,10 +3097,10 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" ht="33" customHeight="1">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="8" t="s">
         <v>129</v>
       </c>
@@ -2997,10 +3116,10 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="24" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="27" t="s">
         <v>123</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -3018,10 +3137,10 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" ht="39" customHeight="1">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="8" t="s">
         <v>132</v>
       </c>
@@ -3037,10 +3156,10 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:10" ht="34.200000000000003" customHeight="1">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="24" t="s">
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="27" t="s">
         <v>124</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -3058,10 +3177,10 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="2:10" ht="39.6" customHeight="1">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="8" t="s">
         <v>137</v>
       </c>
@@ -3077,14 +3196,14 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="2:10" ht="27" customHeight="1">
-      <c r="B50" s="26">
+      <c r="B50" s="31">
         <v>10</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="27" t="s">
         <v>139</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -3102,10 +3221,10 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="2:10" ht="32.4" customHeight="1">
-      <c r="B51" s="26"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="8" t="s">
         <v>143</v>
       </c>
@@ -3121,14 +3240,14 @@
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B52" s="26">
+      <c r="B52" s="31">
         <v>11</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="27" t="s">
         <v>149</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -3143,13 +3262,13 @@
       <c r="I52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="24"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53" spans="2:10" ht="59.4" customHeight="1">
-      <c r="B53" s="26"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="25"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="8" t="s">
         <v>150</v>
       </c>
@@ -3162,17 +3281,17 @@
       <c r="I53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" spans="2:10" ht="52.8" customHeight="1">
-      <c r="B54" s="26">
+      <c r="B54" s="31">
         <v>12</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="24" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="27" t="s">
         <v>155</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -3190,10 +3309,10 @@
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="2:10" ht="50.4" customHeight="1">
-      <c r="B55" s="26"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="25"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="8" t="s">
         <v>159</v>
       </c>
@@ -3209,14 +3328,14 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="2:10" ht="49.8" customHeight="1">
-      <c r="B56" s="26">
+      <c r="B56" s="31">
         <v>13</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="24"/>
+      <c r="E56" s="27" t="s">
         <v>161</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -3234,10 +3353,10 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="2:10" ht="40.200000000000003" customHeight="1">
-      <c r="B57" s="26"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="8" t="s">
         <v>165</v>
       </c>
@@ -3253,14 +3372,14 @@
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="2:10" ht="31.2" customHeight="1">
-      <c r="B58" s="26">
+      <c r="B58" s="31">
         <v>14</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28" t="s">
+      <c r="D58" s="29"/>
+      <c r="E58" s="29" t="s">
         <v>168</v>
       </c>
       <c r="F58" s="8" t="s">
@@ -3278,10 +3397,10 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="2:10" ht="25.2" customHeight="1">
-      <c r="B59" s="26"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="8" t="s">
         <v>171</v>
       </c>
@@ -3297,10 +3416,10 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="2:10" ht="38.4" customHeight="1">
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="8" t="s">
         <v>172</v>
       </c>
@@ -3316,14 +3435,14 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="2:10" ht="32.4" customHeight="1">
-      <c r="B61" s="26">
+      <c r="B61" s="31">
         <v>15</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="24"/>
+      <c r="E61" s="27" t="s">
         <v>176</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -3341,10 +3460,10 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="2:10" ht="30.6" customHeight="1">
-      <c r="B62" s="26"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="25"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="8" t="s">
         <v>178</v>
       </c>
@@ -3360,14 +3479,14 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="2:10" ht="33.6" customHeight="1">
-      <c r="B63" s="26">
+      <c r="B63" s="31">
         <v>16</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="24" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="27" t="s">
         <v>182</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -3385,10 +3504,10 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="2:10" ht="29.4" customHeight="1">
-      <c r="B64" s="26"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="25"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="28"/>
       <c r="F64" s="8" t="s">
         <v>186</v>
       </c>
@@ -3404,14 +3523,14 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="2:10" ht="30" customHeight="1">
-      <c r="B65" s="26">
+      <c r="B65" s="31">
         <v>17</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="24" t="s">
+      <c r="D65" s="24"/>
+      <c r="E65" s="27" t="s">
         <v>189</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -3429,10 +3548,10 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="2:10" ht="35.4" customHeight="1">
-      <c r="B66" s="26"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="25"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="8" t="s">
         <v>195</v>
       </c>
@@ -3448,14 +3567,14 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="2:10" ht="34.200000000000003" customHeight="1">
-      <c r="B67" s="26">
-        <v>18</v>
-      </c>
-      <c r="C67" s="28" t="s">
+      <c r="B67" s="31">
+        <v>18</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28" t="s">
+      <c r="D67" s="29"/>
+      <c r="E67" s="29" t="s">
         <v>193</v>
       </c>
       <c r="F67" s="13" t="s">
@@ -3473,10 +3592,10 @@
       <c r="J67" s="13"/>
     </row>
     <row r="68" spans="2:10" ht="37.799999999999997" customHeight="1">
-      <c r="B68" s="26"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="13" t="s">
         <v>198</v>
       </c>
@@ -3492,10 +3611,10 @@
       <c r="J68" s="13"/>
     </row>
     <row r="69" spans="2:10" ht="44.4" customHeight="1">
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="28"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="13" t="s">
         <v>199</v>
       </c>
@@ -3514,10 +3633,10 @@
       <c r="B70" s="13">
         <v>19</v>
       </c>
-      <c r="C70" s="73" t="s">
+      <c r="C70" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="74"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="13" t="s">
         <v>201</v>
       </c>
@@ -3536,14 +3655,14 @@
       <c r="J70" s="13"/>
     </row>
     <row r="71" spans="2:10" ht="47.4" customHeight="1">
-      <c r="B71" s="26">
+      <c r="B71" s="31">
         <v>20</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="24" t="s">
+      <c r="D71" s="24"/>
+      <c r="E71" s="27" t="s">
         <v>204</v>
       </c>
       <c r="F71" s="13" t="s">
@@ -3561,10 +3680,10 @@
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="2:10" ht="33.6" customHeight="1">
-      <c r="B72" s="26"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="25"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="13" t="s">
         <v>207</v>
       </c>
@@ -3580,14 +3699,14 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" spans="2:10" ht="33" customHeight="1">
-      <c r="B73" s="18">
+      <c r="B73" s="21">
         <v>21</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="24" t="s">
+      <c r="D73" s="24"/>
+      <c r="E73" s="27" t="s">
         <v>208</v>
       </c>
       <c r="F73" s="14" t="s">
@@ -3605,10 +3724,10 @@
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="2:10" ht="30" customHeight="1">
-      <c r="B74" s="19"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="25"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="14" t="s">
         <v>212</v>
       </c>
@@ -3624,14 +3743,14 @@
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10" ht="25.8" customHeight="1">
-      <c r="B75" s="18">
+      <c r="B75" s="21">
         <v>22</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="24" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="27" t="s">
         <v>215</v>
       </c>
       <c r="F75" s="14" t="s">
@@ -3649,10 +3768,10 @@
       <c r="J75" s="14"/>
     </row>
     <row r="76" spans="2:10" ht="31.8" customHeight="1">
-      <c r="B76" s="19"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="25"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="14" t="s">
         <v>219</v>
       </c>
@@ -3668,14 +3787,14 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:10" ht="48.6" customHeight="1">
-      <c r="B77" s="18">
+      <c r="B77" s="21">
         <v>23</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="24" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="27" t="s">
         <v>221</v>
       </c>
       <c r="F77" s="14" t="s">
@@ -3693,10 +3812,10 @@
       <c r="J77" s="14"/>
     </row>
     <row r="78" spans="2:10" ht="40.799999999999997" customHeight="1">
-      <c r="B78" s="19"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="25"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="14" t="s">
         <v>225</v>
       </c>
@@ -3712,14 +3831,14 @@
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="2:10" ht="36" customHeight="1">
-      <c r="B79" s="18">
+      <c r="B79" s="21">
         <v>24</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="24" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="27" t="s">
         <v>226</v>
       </c>
       <c r="F79" s="14" t="s">
@@ -3737,10 +3856,10 @@
       <c r="J79" s="14"/>
     </row>
     <row r="80" spans="2:10" ht="28.8" customHeight="1">
-      <c r="B80" s="19"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="25"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="14" t="s">
         <v>186</v>
       </c>
@@ -3756,14 +3875,14 @@
       <c r="J80" s="14"/>
     </row>
     <row r="81" spans="2:10" ht="33" customHeight="1">
-      <c r="B81" s="18">
+      <c r="B81" s="21">
         <v>25</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="24" t="s">
+      <c r="D81" s="24"/>
+      <c r="E81" s="27" t="s">
         <v>229</v>
       </c>
       <c r="F81" s="14" t="s">
@@ -3781,10 +3900,10 @@
       <c r="J81" s="14"/>
     </row>
     <row r="82" spans="2:10" ht="39" customHeight="1">
-      <c r="B82" s="19"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="28"/>
       <c r="F82" s="14" t="s">
         <v>178</v>
       </c>
@@ -3800,14 +3919,14 @@
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="2:10" ht="34.200000000000003" customHeight="1">
-      <c r="B83" s="18">
+      <c r="B83" s="21">
         <v>26</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="24" t="s">
+      <c r="D83" s="24"/>
+      <c r="E83" s="27" t="s">
         <v>230</v>
       </c>
       <c r="F83" s="14" t="s">
@@ -3825,10 +3944,10 @@
       <c r="J83" s="14"/>
     </row>
     <row r="84" spans="2:10" ht="30.6" customHeight="1">
-      <c r="B84" s="19"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="25"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="14" t="s">
         <v>233</v>
       </c>
@@ -3844,14 +3963,14 @@
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="2:10" ht="25.8" customHeight="1">
-      <c r="B85" s="18">
+      <c r="B85" s="21">
         <v>27</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="24" t="s">
+      <c r="D85" s="24"/>
+      <c r="E85" s="27" t="s">
         <v>234</v>
       </c>
       <c r="F85" s="14" t="s">
@@ -3869,10 +3988,10 @@
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:10" ht="27" customHeight="1">
-      <c r="B86" s="19"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="25"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="28"/>
       <c r="F86" s="14" t="s">
         <v>234</v>
       </c>
@@ -3891,10 +4010,10 @@
       <c r="B87" s="15">
         <v>28</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="29"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="16" t="s">
         <v>236</v>
       </c>
@@ -3916,10 +4035,10 @@
       <c r="B88" s="17">
         <v>29</v>
       </c>
-      <c r="C88" s="73" t="s">
+      <c r="C88" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D88" s="74"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="16" t="s">
         <v>239</v>
       </c>
@@ -3938,14 +4057,14 @@
       <c r="J88" s="16"/>
     </row>
     <row r="89" spans="2:10" ht="32.4" customHeight="1">
-      <c r="B89" s="18">
+      <c r="B89" s="21">
         <v>30</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="24" t="s">
+      <c r="D89" s="24"/>
+      <c r="E89" s="27" t="s">
         <v>243</v>
       </c>
       <c r="F89" s="16" t="s">
@@ -3963,10 +4082,10 @@
       <c r="J89" s="16"/>
     </row>
     <row r="90" spans="2:10" ht="36" customHeight="1">
-      <c r="B90" s="19"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="25"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="28"/>
       <c r="F90" s="16" t="s">
         <v>245</v>
       </c>
@@ -3981,38 +4100,257 @@
       </c>
       <c r="J90" s="16"/>
     </row>
+    <row r="91" spans="2:10" ht="29.4" customHeight="1">
+      <c r="B91" s="21">
+        <v>31</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="18"/>
+    </row>
+    <row r="92" spans="2:10" ht="34.799999999999997" customHeight="1">
+      <c r="B92" s="22"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="18"/>
+    </row>
+    <row r="93" spans="2:10" ht="31.8" customHeight="1">
+      <c r="B93" s="21">
+        <v>32</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="18"/>
+    </row>
+    <row r="94" spans="2:10" ht="38.4" customHeight="1">
+      <c r="B94" s="22"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="18"/>
+    </row>
+    <row r="95" spans="2:10" ht="40.799999999999997" customHeight="1">
+      <c r="B95" s="31">
+        <v>33</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="F95" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="18"/>
+    </row>
+    <row r="96" spans="2:10" ht="32.4" customHeight="1">
+      <c r="B96" s="31"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="18"/>
+    </row>
+    <row r="97" spans="2:10" ht="39.6" customHeight="1">
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="18"/>
+    </row>
+    <row r="98" spans="2:10" ht="37.799999999999997" customHeight="1">
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="18"/>
+    </row>
+    <row r="99" spans="2:10" ht="39" customHeight="1">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="18"/>
+    </row>
+    <row r="100" spans="2:10" ht="58.2" customHeight="1">
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="G100" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="C67:D69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="C58:D60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
+  <mergeCells count="110">
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="C95:D100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="E95:E100"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:D49"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C33:D39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C13:D19"/>
+    <mergeCell ref="C6:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="C50:D51"/>
@@ -4037,32 +4375,36 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C13:D19"/>
-    <mergeCell ref="C6:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:D49"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C33:D39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="C58:D60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="C67:D69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="E71:E72"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:D74"/>
     <mergeCell ref="E73:E74"/>
@@ -4078,12 +4420,6 @@
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:D86"/>
     <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
